--- a/sampleFiles/Test Data.xlsx
+++ b/sampleFiles/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Github\roguetech-commander-dashboard\sampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1414D27-F51E-4166-801E-BC988F38112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D691D0D3-A43F-4794-84A0-49FC5C5C16D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="1995" windowWidth="32325" windowHeight="19605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53580" yWindow="900" windowWidth="22005" windowHeight="16725" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="damage" sheetId="1" r:id="rId1"/>
@@ -1316,10 +1316,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y664"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
@@ -52479,9 +52482,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
